--- a/va_facility_data_2025-02-20/Abie Abraham VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Abie%20Abraham%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Abie Abraham VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Abie%20Abraham%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,11 +2,11 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R906a11f6808e431cb01d8036be76afff"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="2" r:id="R22246dbc09e643eabc4a1654ce6300ea"/>
-    <x:sheet name="Wait Times" sheetId="3" r:id="R002d428685c749828de46593a48c3f4d"/>
-    <x:sheet name="Satisfaction with Care" sheetId="4" r:id="R94875620d16743178bde6a4d1bc11f95"/>
-    <x:sheet name="Outpatient Score" sheetId="5" r:id="R4c80f4cb6ed14a599c6c3ad48243abf2"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R11063de6612046d3a2e0520db611e779"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="2" r:id="R46d9c2dadfa3462384138aa4365395ab"/>
+    <x:sheet name="Wait Times" sheetId="3" r:id="R026b958cda924e4fb51017485d70c754"/>
+    <x:sheet name="Satisfaction with Care" sheetId="4" r:id="R203444ec65924445b06273945a3499d5"/>
+    <x:sheet name="Outpatient Score" sheetId="5" r:id="Ra64b2b089e6e436195b06ce719f1955f"/>
   </x:sheets>
 </x:workbook>
 </file>
